--- a/biology/Botanique/Jonc_courbé/Jonc_courbé.xlsx
+++ b/biology/Botanique/Jonc_courbé/Jonc_courbé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jonc_courb%C3%A9</t>
+          <t>Jonc_courbé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Juncus inflexus, le Jonc glauque ou Jonc arqué, est une espèce végétale de la famille des Juncaceae. C'est une plante herbacée vivace vivant en milieu humide, la tige est droite et flexible.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jonc_courb%C3%A9</t>
+          <t>Jonc_courbé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 juin 2020)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 Juncus inflexus subsp. austro-occidentalis K.F. Wu
 Juncus inflexus subsp. brachytepalus (V.I. Krecz. &amp; Gontsch.) Novikov (1979)
 Juncus inflexus subsp. inflexus
